--- a/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_categorization_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_categorization_living_rooms_2.xlsx
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_j73b6.png</t>
+          <t>stimuli/img_sx68r.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>21.5609756097561</v>
+        <v>54</v>
       </c>
       <c r="N3">
-        <v>19.90243902439024</v>
+        <v>33.2051282051282</v>
       </c>
       <c r="O3">
-        <v>20.73170731707317</v>
+        <v>43.6025641025641</v>
       </c>
       <c r="P3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -651,53 +651,53 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_bg264.png</t>
+          <t>stimuli/img_jr212.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>87.9047619047619</v>
+        <v>59.48571428571429</v>
       </c>
       <c r="N4">
-        <v>71.5</v>
+        <v>39.08571428571429</v>
       </c>
       <c r="O4">
-        <v>79.70238095238095</v>
+        <v>49.28571428571429</v>
       </c>
       <c r="P4">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -728,7 +728,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -743,38 +743,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_di49w.png</t>
+          <t>stimuli/img_ds88w.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>73.03125</v>
+        <v>61.425</v>
       </c>
       <c r="N5">
-        <v>52.25</v>
+        <v>38.2</v>
       </c>
       <c r="O5">
-        <v>62.640625</v>
+        <v>49.8125</v>
       </c>
       <c r="P5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -805,53 +805,53 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_k0ze7.png</t>
+          <t>stimuli/img_9684y.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>58.82142857142857</v>
+        <v>77.95744680851064</v>
       </c>
       <c r="N6">
-        <v>37.46428571428572</v>
+        <v>56.70212765957447</v>
       </c>
       <c r="O6">
-        <v>48.14285714285714</v>
+        <v>67.32978723404256</v>
       </c>
       <c r="P6">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -882,7 +882,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -897,38 +897,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_qgbyn.png</t>
+          <t>stimuli/img_z10c7.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>65.08108108108108</v>
+        <v>63.45945945945946</v>
       </c>
       <c r="N7">
-        <v>40.10810810810811</v>
+        <v>37.21621621621622</v>
       </c>
       <c r="O7">
-        <v>52.5945945945946</v>
+        <v>50.33783783783784</v>
       </c>
       <c r="P7">
         <v>37</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -974,38 +974,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_vnxft.png</t>
+          <t>stimuli/img_xbtev.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>53.22727272727273</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="N8">
-        <v>34.84090909090909</v>
+        <v>8.568181818181818</v>
       </c>
       <c r="O8">
-        <v>44.03409090909091</v>
+        <v>11.125</v>
       </c>
       <c r="P8">
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1036,53 +1036,53 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_di6f0.png</t>
+          <t>stimuli/img_1r2ri.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>94.04347826086956</v>
+        <v>62.44117647058823</v>
       </c>
       <c r="N9">
-        <v>83.34782608695652</v>
+        <v>40.76470588235294</v>
       </c>
       <c r="O9">
-        <v>88.69565217391303</v>
+        <v>51.60294117647059</v>
       </c>
       <c r="P9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_mdh76.png</t>
+          <t>stimuli/img_tujn3.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>37.31914893617022</v>
+        <v>81.40909090909091</v>
       </c>
       <c r="N10">
-        <v>25.12765957446809</v>
+        <v>62.52272727272727</v>
       </c>
       <c r="O10">
-        <v>31.22340425531915</v>
+        <v>71.96590909090909</v>
       </c>
       <c r="P10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1205,38 +1205,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_3ze38.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>62.30232558139535</v>
+        <v>35.53191489361702</v>
       </c>
       <c r="N11">
-        <v>39.97674418604651</v>
+        <v>28.4468085106383</v>
       </c>
       <c r="O11">
-        <v>51.13953488372093</v>
+        <v>31.98936170212766</v>
       </c>
       <c r="P11">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1282,38 +1282,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_sx68r.png</t>
+          <t>stimuli/img_6wne4.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>25.16279069767442</v>
       </c>
       <c r="N12">
-        <v>33.2051282051282</v>
+        <v>15</v>
       </c>
       <c r="O12">
-        <v>43.6025641025641</v>
+        <v>20.08139534883721</v>
       </c>
       <c r="P12">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1359,38 +1359,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_gsfx4.png</t>
+          <t>stimuli/img_mdpr4.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>59.94736842105263</v>
+        <v>74.04255319148936</v>
       </c>
       <c r="N13">
-        <v>33.81578947368421</v>
+        <v>54.70212765957447</v>
       </c>
       <c r="O13">
-        <v>46.88157894736842</v>
+        <v>64.37234042553192</v>
       </c>
       <c r="P13">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1421,53 +1421,53 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_die1d.png</t>
+          <t>stimuli/img_di6f0.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>75.42857142857143</v>
+        <v>94.04347826086956</v>
       </c>
       <c r="N14">
-        <v>53.30952380952381</v>
+        <v>83.34782608695652</v>
       </c>
       <c r="O14">
-        <v>64.36904761904762</v>
+        <v>88.69565217391303</v>
       </c>
       <c r="P14">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1513,38 +1513,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_9684y.png</t>
+          <t>stimuli/img_bf8nx.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>77.95744680851064</v>
+        <v>86.63414634146342</v>
       </c>
       <c r="N15">
-        <v>56.70212765957447</v>
+        <v>66.63414634146342</v>
       </c>
       <c r="O15">
-        <v>67.32978723404256</v>
+        <v>76.63414634146342</v>
       </c>
       <c r="P15">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_xbtev.png</t>
+          <t>stimuli/img_49h18.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>13.68181818181818</v>
+        <v>59.28947368421053</v>
       </c>
       <c r="N16">
-        <v>8.568181818181818</v>
+        <v>32.8421052631579</v>
       </c>
       <c r="O16">
-        <v>11.125</v>
+        <v>46.06578947368421</v>
       </c>
       <c r="P16">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1652,53 +1652,53 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_z10c7.png</t>
+          <t>stimuli/img_tv8e2.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>63.45945945945946</v>
+        <v>71.93023255813954</v>
       </c>
       <c r="N17">
-        <v>37.21621621621622</v>
+        <v>50.25581395348837</v>
       </c>
       <c r="O17">
-        <v>50.33783783783784</v>
+        <v>61.09302325581395</v>
       </c>
       <c r="P17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_jr212.png</t>
+          <t>stimuli/img_r10cu.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>59.48571428571429</v>
+        <v>78.52380952380952</v>
       </c>
       <c r="N19">
-        <v>39.08571428571429</v>
+        <v>56.14285714285715</v>
       </c>
       <c r="O19">
-        <v>49.28571428571429</v>
+        <v>67.33333333333333</v>
       </c>
       <c r="P19">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1898,38 +1898,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_49h18.png</t>
+          <t>stimuli/img_2b8fp.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>59.28947368421053</v>
+        <v>73.89189189189189</v>
       </c>
       <c r="N20">
-        <v>32.8421052631579</v>
+        <v>51.45945945945946</v>
       </c>
       <c r="O20">
-        <v>46.06578947368421</v>
+        <v>62.67567567567568</v>
       </c>
       <c r="P20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1960,35 +1960,35 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_njhlh.png</t>
+          <t>stimuli/img_ccn2w.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>59.74418604651163</v>
+        <v>65.78723404255319</v>
       </c>
       <c r="N21">
-        <v>41.51162790697674</v>
+        <v>40.31914893617022</v>
       </c>
       <c r="O21">
-        <v>50.62790697674419</v>
+        <v>53.05319148936171</v>
       </c>
       <c r="P21">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -2052,38 +2052,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_mdpr4.png</t>
+          <t>stimuli/img_2dnfy.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>74.04255319148936</v>
+        <v>59.97297297297298</v>
       </c>
       <c r="N22">
-        <v>54.70212765957447</v>
+        <v>37.56756756756756</v>
       </c>
       <c r="O22">
-        <v>64.37234042553192</v>
+        <v>48.77027027027027</v>
       </c>
       <c r="P22">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2114,53 +2114,53 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_2dnfy.png</t>
+          <t>stimuli/img_j73b6.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>59.97297297297298</v>
+        <v>21.5609756097561</v>
       </c>
       <c r="N23">
-        <v>37.56756756756756</v>
+        <v>19.90243902439024</v>
       </c>
       <c r="O23">
-        <v>48.77027027027027</v>
+        <v>20.73170731707317</v>
       </c>
       <c r="P23">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2206,38 +2206,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_6wne4.png</t>
+          <t>stimuli/img_2qhro.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>25.16279069767442</v>
+        <v>81.73809523809524</v>
       </c>
       <c r="N24">
-        <v>15</v>
+        <v>62.73809523809524</v>
       </c>
       <c r="O24">
-        <v>20.08139534883721</v>
+        <v>72.23809523809524</v>
       </c>
       <c r="P24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_9mcah.png</t>
+          <t>stimuli/img_njhlh.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>59.59375</v>
+        <v>59.74418604651163</v>
       </c>
       <c r="N25">
-        <v>36.75</v>
+        <v>41.51162790697674</v>
       </c>
       <c r="O25">
-        <v>48.171875</v>
+        <v>50.62790697674419</v>
       </c>
       <c r="P25">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2345,53 +2345,53 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_2b8fp.png</t>
+          <t>stimuli/img_vnxft.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>73.89189189189189</v>
+        <v>53.22727272727273</v>
       </c>
       <c r="N26">
-        <v>51.45945945945946</v>
+        <v>34.84090909090909</v>
       </c>
       <c r="O26">
-        <v>62.67567567567568</v>
+        <v>44.03409090909091</v>
       </c>
       <c r="P26">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2422,53 +2422,53 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_r10cu.png</t>
+          <t>stimuli/img_9mcah.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>78.52380952380952</v>
+        <v>59.59375</v>
       </c>
       <c r="N27">
-        <v>56.14285714285715</v>
+        <v>36.75</v>
       </c>
       <c r="O27">
-        <v>67.33333333333333</v>
+        <v>48.171875</v>
       </c>
       <c r="P27">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2514,38 +2514,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_99exx.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>85.51162790697674</v>
+        <v>70.02272727272727</v>
       </c>
       <c r="N28">
-        <v>67.86046511627907</v>
+        <v>51.88636363636363</v>
       </c>
       <c r="O28">
-        <v>76.68604651162791</v>
+        <v>60.95454545454545</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2591,38 +2591,38 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_1r08n.png</t>
+          <t>stimuli/img_k0ze7.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>72.34285714285714</v>
+        <v>58.82142857142857</v>
       </c>
       <c r="N29">
-        <v>49</v>
+        <v>37.46428571428572</v>
       </c>
       <c r="O29">
-        <v>60.67142857142857</v>
+        <v>48.14285714285714</v>
       </c>
       <c r="P29">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2653,53 +2653,53 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_vg73h.png</t>
+          <t>stimuli/img_1r08n.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>87.7</v>
+        <v>72.34285714285714</v>
       </c>
       <c r="N30">
-        <v>72.40000000000001</v>
+        <v>49</v>
       </c>
       <c r="O30">
-        <v>80.05000000000001</v>
+        <v>60.67142857142857</v>
       </c>
       <c r="P30">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2730,53 +2730,53 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_99exx.png</t>
+          <t>stimuli/img_gsfx4.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>70.02272727272727</v>
+        <v>59.94736842105263</v>
       </c>
       <c r="N31">
-        <v>51.88636363636363</v>
+        <v>33.81578947368421</v>
       </c>
       <c r="O31">
-        <v>60.95454545454545</v>
+        <v>46.88157894736842</v>
       </c>
       <c r="P31">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2822,38 +2822,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_tujn3.png</t>
+          <t>stimuli/img_kq9s9.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>81.40909090909091</v>
+        <v>62.30232558139535</v>
       </c>
       <c r="N32">
-        <v>62.52272727272727</v>
+        <v>39.97674418604651</v>
       </c>
       <c r="O32">
-        <v>71.96590909090909</v>
+        <v>51.13953488372093</v>
       </c>
       <c r="P32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2884,35 +2884,35 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_tv8e2.png</t>
+          <t>stimuli/img_di49w.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>71.93023255813954</v>
+        <v>73.03125</v>
       </c>
       <c r="N33">
-        <v>50.25581395348837</v>
+        <v>52.25</v>
       </c>
       <c r="O33">
-        <v>61.09302325581395</v>
+        <v>62.640625</v>
       </c>
       <c r="P33">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2976,20 +2976,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_ds88w.png</t>
+          <t>stimuli/img_x9ml4.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>61.425</v>
+        <v>58.71428571428572</v>
       </c>
       <c r="N34">
-        <v>38.2</v>
+        <v>38.46428571428572</v>
       </c>
       <c r="O34">
-        <v>49.8125</v>
+        <v>48.58928571428572</v>
       </c>
       <c r="P34">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -3038,53 +3038,53 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_3gm8h.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>81.73809523809524</v>
+        <v>65.07894736842105</v>
       </c>
       <c r="N35">
-        <v>62.73809523809524</v>
+        <v>43.92105263157895</v>
       </c>
       <c r="O35">
-        <v>72.23809523809524</v>
+        <v>54.5</v>
       </c>
       <c r="P35">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V35">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3115,53 +3115,53 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_1r2ri.png</t>
+          <t>stimuli/img_mdh76.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>62.44117647058823</v>
+        <v>37.31914893617022</v>
       </c>
       <c r="N36">
-        <v>40.76470588235294</v>
+        <v>25.12765957446809</v>
       </c>
       <c r="O36">
-        <v>51.60294117647059</v>
+        <v>31.22340425531915</v>
       </c>
       <c r="P36">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>3</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3192,53 +3192,53 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_ccn2w.png</t>
+          <t>stimuli/img_vg73h.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>65.78723404255319</v>
+        <v>87.7</v>
       </c>
       <c r="N37">
-        <v>40.31914893617022</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="O37">
-        <v>53.05319148936171</v>
+        <v>80.05000000000001</v>
       </c>
       <c r="P37">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V37">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3269,53 +3269,53 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_x9ml4.png</t>
+          <t>stimuli/img_bg264.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>58.71428571428572</v>
+        <v>87.9047619047619</v>
       </c>
       <c r="N38">
-        <v>38.46428571428572</v>
+        <v>71.5</v>
       </c>
       <c r="O38">
-        <v>48.58928571428572</v>
+        <v>79.70238095238095</v>
       </c>
       <c r="P38">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V38">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -3361,20 +3361,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_qdln8.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>86.63414634146342</v>
+        <v>85.51162790697674</v>
       </c>
       <c r="N39">
-        <v>66.63414634146342</v>
+        <v>67.86046511627907</v>
       </c>
       <c r="O39">
-        <v>76.63414634146342</v>
+        <v>76.68604651162791</v>
       </c>
       <c r="P39">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -3386,13 +3386,13 @@
         <v>9</v>
       </c>
       <c r="T39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U39">
         <v>9</v>
       </c>
       <c r="V39">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3438,20 +3438,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_3gm8h.png</t>
+          <t>stimuli/img_qgbyn.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>65.07894736842105</v>
+        <v>65.08108108108108</v>
       </c>
       <c r="N40">
-        <v>43.92105263157895</v>
+        <v>40.10810810810811</v>
       </c>
       <c r="O40">
-        <v>54.5</v>
+        <v>52.5945945945946</v>
       </c>
       <c r="P40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -3500,53 +3500,53 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_3ze38.png</t>
+          <t>stimuli/img_die1d.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>35.53191489361702</v>
+        <v>75.42857142857143</v>
       </c>
       <c r="N41">
-        <v>28.4468085106383</v>
+        <v>53.30952380952381</v>
       </c>
       <c r="O41">
-        <v>31.98936170212766</v>
+        <v>64.36904761904762</v>
       </c>
       <c r="P41">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
